--- a/ONCHO/Impact Assessments/Togo/tg_oncho_prestop_3_rdtov16.xlsx
+++ b/ONCHO/Impact Assessments/Togo/tg_oncho_prestop_3_rdtov16.xlsx
@@ -270,13 +270,13 @@
     <t>Ligne témoin brisées/partielle</t>
   </si>
   <si>
-    <t>Difficulte.d’absorption.d’echantillon</t>
+    <t>Difficulte.d.absorption.d.echantillon</t>
   </si>
   <si>
     <t>Difficulté d’absorption d’échantillon</t>
   </si>
   <si>
-    <t>Difficulte.de.migration.de.l’echantillon</t>
+    <t>Difficulte.de.migration.de.l.echantillon</t>
   </si>
   <si>
     <t>Difficulté de migration de l’échantillon</t>
@@ -1950,7 +1950,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2336,7 +2336,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B6"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
